--- a/WB/MakePrint/topPrint.xlsx
+++ b/WB/MakePrint/topPrint.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProduct\Python\WB\MakePrint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D038DB71-0B97-4549-BDD1-8D56F1F671AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BB42D8-E02B-42BA-95F9-883F1629A968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{52C118DA-3D13-413E-8453-DFF1A82D8B5D}"/>
   </bookViews>
@@ -11105,7 +11105,7 @@
   <dimension ref="A1:B3571"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WB/MakePrint/topPrint.xlsx
+++ b/WB/MakePrint/topPrint.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProduct\Python\WB\MakePrint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{874BF790-D884-4DA3-8B69-C559F0675B22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC435C0-CD37-45D5-8F87-C25B7DC9FDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{52C118DA-3D13-413E-8453-DFF1A82D8B5D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{52C118DA-3D13-413E-8453-DFF1A82D8B5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист2" sheetId="2" r:id="rId1"/>
@@ -12161,7 +12161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDDB677-A0C0-447B-9C6A-71B56E7A4F07}">
   <dimension ref="A1:B3571"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -40747,8 +40747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF898751-4ADC-4049-B505-A9E6EB5E1578}">
   <dimension ref="A1:D3571"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WB/MakePrint/topPrint.xlsx
+++ b/WB/MakePrint/topPrint.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProduct\Python\WB\MakePrint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC435C0-CD37-45D5-8F87-C25B7DC9FDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386D4AF5-C6AC-4593-8CC5-D5E4A7DECED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{52C118DA-3D13-413E-8453-DFF1A82D8B5D}"/>
   </bookViews>
@@ -40748,7 +40748,7 @@
   <dimension ref="A1:D3571"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WB/MakePrint/topPrint.xlsx
+++ b/WB/MakePrint/topPrint.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProduct\Python\WB\MakePrint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386D4AF5-C6AC-4593-8CC5-D5E4A7DECED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC0E6D8-1C56-4AD8-8C60-49C279D21317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{52C118DA-3D13-413E-8453-DFF1A82D8B5D}"/>
   </bookViews>

--- a/WB/MakePrint/topPrint.xlsx
+++ b/WB/MakePrint/topPrint.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProduct\Python\WB\MakePrint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC0E6D8-1C56-4AD8-8C60-49C279D21317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AF7BBF-7675-40F6-A56D-D8FDB4D2403D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{52C118DA-3D13-413E-8453-DFF1A82D8B5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист2" sheetId="2" r:id="rId1"/>
-    <sheet name="Лист1" sheetId="1" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40744,11 +40745,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE65C4AD-3A5A-4094-B20E-216A592604DB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF898751-4ADC-4049-B505-A9E6EB5E1578}">
   <dimension ref="A1:D3571"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/WB/MakePrint/topPrint.xlsx
+++ b/WB/MakePrint/topPrint.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyProduct\Python\WB\MakePrint\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC0E6D8-1C56-4AD8-8C60-49C279D21317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB68DBB6-CEBC-4999-9EEA-5D76A6D088B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{52C118DA-3D13-413E-8453-DFF1A82D8B5D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{52C118DA-3D13-413E-8453-DFF1A82D8B5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист2" sheetId="2" r:id="rId1"/>
@@ -12161,8 +12161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FDDB677-A0C0-447B-9C6A-71B56E7A4F07}">
   <dimension ref="A1:B3571"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40745,10 +40745,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF898751-4ADC-4049-B505-A9E6EB5E1578}">
-  <dimension ref="A1:D3571"/>
+  <dimension ref="A1:B3571"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40756,7 +40756,7 @@
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3571</v>
       </c>
@@ -40764,5269 +40764,2812 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3572</v>
       </c>
-      <c r="C2" t="str">
-        <f>SUBSTITUTE(B2,"***",D2)</f>
-        <v>(Принт 4200)</v>
-      </c>
-      <c r="D2">
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3573</v>
       </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C66" si="0">SUBSTITUTE(B3,"***",D3)</f>
-        <v>(Принт 4201)</v>
-      </c>
-      <c r="D3">
-        <v>4201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>3574</v>
       </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4202)</v>
-      </c>
-      <c r="D4">
-        <v>4202</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>3576</v>
       </c>
-      <c r="C5" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4203)</v>
-      </c>
-      <c r="D5">
-        <v>4203</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>3577</v>
       </c>
-      <c r="C6" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4204)</v>
-      </c>
-      <c r="D6">
-        <v>4204</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>3578</v>
       </c>
-      <c r="C7" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4205)</v>
-      </c>
-      <c r="D7">
-        <v>4205</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>3579</v>
       </c>
-      <c r="C8" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4206)</v>
-      </c>
-      <c r="D8">
-        <v>4206</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>3580</v>
       </c>
-      <c r="C9" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4207)</v>
-      </c>
-      <c r="D9">
-        <v>4207</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>3581</v>
       </c>
-      <c r="C10" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4208)</v>
-      </c>
-      <c r="D10">
-        <v>4208</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>3582</v>
       </c>
-      <c r="C11" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4209)</v>
-      </c>
-      <c r="D11">
-        <v>4209</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>3583</v>
       </c>
-      <c r="C12" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4210)</v>
-      </c>
-      <c r="D12">
-        <v>4210</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>3584</v>
       </c>
-      <c r="C13" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4211)</v>
-      </c>
-      <c r="D13">
-        <v>4211</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>3585</v>
       </c>
-      <c r="C14" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4212)</v>
-      </c>
-      <c r="D14">
-        <v>4212</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>3586</v>
       </c>
-      <c r="C15" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4213)</v>
-      </c>
-      <c r="D15">
-        <v>4213</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>3587</v>
       </c>
-      <c r="C16" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4214)</v>
-      </c>
-      <c r="D16">
-        <v>4214</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>3588</v>
       </c>
-      <c r="C17" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4215)</v>
-      </c>
-      <c r="D17">
-        <v>4215</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>3589</v>
       </c>
-      <c r="C18" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4216)</v>
-      </c>
-      <c r="D18">
-        <v>4216</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>3590</v>
       </c>
-      <c r="C19" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4217)</v>
-      </c>
-      <c r="D19">
-        <v>4217</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>3591</v>
       </c>
-      <c r="C20" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4218)</v>
-      </c>
-      <c r="D20">
-        <v>4218</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>3592</v>
       </c>
-      <c r="C21" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4219)</v>
-      </c>
-      <c r="D21">
-        <v>4219</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>3593</v>
       </c>
-      <c r="C22" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4220)</v>
-      </c>
-      <c r="D22">
-        <v>4220</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>3594</v>
       </c>
-      <c r="C23" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4221)</v>
-      </c>
-      <c r="D23">
-        <v>4221</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>3595</v>
       </c>
-      <c r="C24" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4222)</v>
-      </c>
-      <c r="D24">
-        <v>4222</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>3596</v>
       </c>
-      <c r="C25" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4223)</v>
-      </c>
-      <c r="D25">
-        <v>4223</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>3597</v>
       </c>
-      <c r="C26" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4224)</v>
-      </c>
-      <c r="D26">
-        <v>4224</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>3598</v>
       </c>
-      <c r="C27" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4225)</v>
-      </c>
-      <c r="D27">
-        <v>4225</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>3599</v>
       </c>
-      <c r="C28" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4226)</v>
-      </c>
-      <c r="D28">
-        <v>4226</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>3600</v>
       </c>
-      <c r="C29" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4227)</v>
-      </c>
-      <c r="D29">
-        <v>4227</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>3601</v>
       </c>
-      <c r="C30" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4228)</v>
-      </c>
-      <c r="D30">
-        <v>4228</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>3602</v>
       </c>
-      <c r="C31" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4229)</v>
-      </c>
-      <c r="D31">
-        <v>4229</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>3603</v>
       </c>
-      <c r="C32" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4230)</v>
-      </c>
-      <c r="D32">
-        <v>4230</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>3604</v>
       </c>
-      <c r="C33" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4231)</v>
-      </c>
-      <c r="D33">
-        <v>4231</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>3605</v>
       </c>
-      <c r="C34" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4232)</v>
-      </c>
-      <c r="D34">
-        <v>4232</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>3606</v>
       </c>
-      <c r="C35" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4233)</v>
-      </c>
-      <c r="D35">
-        <v>4233</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>3607</v>
       </c>
-      <c r="C36" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4234)</v>
-      </c>
-      <c r="D36">
-        <v>4234</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>3608</v>
       </c>
-      <c r="C37" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4235)</v>
-      </c>
-      <c r="D37">
-        <v>4235</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>3609</v>
       </c>
-      <c r="C38" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4236)</v>
-      </c>
-      <c r="D38">
-        <v>4236</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>3610</v>
       </c>
-      <c r="C39" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4237)</v>
-      </c>
-      <c r="D39">
-        <v>4237</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>3611</v>
       </c>
-      <c r="C40" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4238)</v>
-      </c>
-      <c r="D40">
-        <v>4238</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>3612</v>
       </c>
-      <c r="C41" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4239)</v>
-      </c>
-      <c r="D41">
-        <v>4239</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>3613</v>
       </c>
-      <c r="C42" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4240)</v>
-      </c>
-      <c r="D42">
-        <v>4240</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>3614</v>
       </c>
-      <c r="C43" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4241)</v>
-      </c>
-      <c r="D43">
-        <v>4241</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>3615</v>
       </c>
-      <c r="C44" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4242)</v>
-      </c>
-      <c r="D44">
-        <v>4242</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>3616</v>
       </c>
-      <c r="C45" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4243)</v>
-      </c>
-      <c r="D45">
-        <v>4243</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>3617</v>
       </c>
-      <c r="C46" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4244)</v>
-      </c>
-      <c r="D46">
-        <v>4244</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>3618</v>
       </c>
-      <c r="C47" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4245)</v>
-      </c>
-      <c r="D47">
-        <v>4245</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>3619</v>
       </c>
-      <c r="C48" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4246)</v>
-      </c>
-      <c r="D48">
-        <v>4246</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>3620</v>
       </c>
-      <c r="C49" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4247)</v>
-      </c>
-      <c r="D49">
-        <v>4247</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>3621</v>
       </c>
-      <c r="C50" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4248)</v>
-      </c>
-      <c r="D50">
-        <v>4248</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>3622</v>
       </c>
-      <c r="C51" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4249)</v>
-      </c>
-      <c r="D51">
-        <v>4249</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>3623</v>
       </c>
-      <c r="C52" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4250)</v>
-      </c>
-      <c r="D52">
-        <v>4250</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>3624</v>
       </c>
-      <c r="C53" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4251)</v>
-      </c>
-      <c r="D53">
-        <v>4251</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>3625</v>
       </c>
-      <c r="C54" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4252)</v>
-      </c>
-      <c r="D54">
-        <v>4252</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>3626</v>
       </c>
-      <c r="C55" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4253)</v>
-      </c>
-      <c r="D55">
-        <v>4253</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
         <v>3627</v>
       </c>
-      <c r="C56" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4254)</v>
-      </c>
-      <c r="D56">
-        <v>4254</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
         <v>3628</v>
       </c>
-      <c r="C57" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4255)</v>
-      </c>
-      <c r="D57">
-        <v>4255</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
         <v>3629</v>
       </c>
-      <c r="C58" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4256)</v>
-      </c>
-      <c r="D58">
-        <v>4256</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
         <v>3630</v>
       </c>
-      <c r="C59" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4257)</v>
-      </c>
-      <c r="D59">
-        <v>4257</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
         <v>3631</v>
       </c>
-      <c r="C60" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4258)</v>
-      </c>
-      <c r="D60">
-        <v>4258</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
         <v>3632</v>
       </c>
-      <c r="C61" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4259)</v>
-      </c>
-      <c r="D61">
-        <v>4259</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
         <v>3633</v>
       </c>
-      <c r="C62" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4260)</v>
-      </c>
-      <c r="D62">
-        <v>4260</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
         <v>3634</v>
       </c>
-      <c r="C63" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4261)</v>
-      </c>
-      <c r="D63">
-        <v>4261</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>3635</v>
       </c>
-      <c r="C64" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4262)</v>
-      </c>
-      <c r="D64">
-        <v>4262</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
         <v>3636</v>
       </c>
-      <c r="C65" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4263)</v>
-      </c>
-      <c r="D65">
-        <v>4263</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>3637</v>
       </c>
-      <c r="C66" t="str">
-        <f t="shared" si="0"/>
-        <v>(Принт 4264)</v>
-      </c>
-      <c r="D66">
-        <v>4264</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>3638</v>
       </c>
-      <c r="C67" t="str">
-        <f t="shared" ref="C67:C130" si="1">SUBSTITUTE(B67,"***",D67)</f>
-        <v>(Принт 4265)</v>
-      </c>
-      <c r="D67">
-        <v>4265</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
         <v>3639</v>
       </c>
-      <c r="C68" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4266)</v>
-      </c>
-      <c r="D68">
-        <v>4266</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
         <v>3640</v>
       </c>
-      <c r="C69" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4267)</v>
-      </c>
-      <c r="D69">
-        <v>4267</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
         <v>3641</v>
       </c>
-      <c r="C70" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4268)</v>
-      </c>
-      <c r="D70">
-        <v>4268</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
         <v>3642</v>
       </c>
-      <c r="C71" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4269)</v>
-      </c>
-      <c r="D71">
-        <v>4269</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
         <v>3643</v>
       </c>
-      <c r="C72" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4270)</v>
-      </c>
-      <c r="D72">
-        <v>4270</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
         <v>3644</v>
       </c>
-      <c r="C73" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4271)</v>
-      </c>
-      <c r="D73">
-        <v>4271</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
         <v>3645</v>
       </c>
-      <c r="C74" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4272)</v>
-      </c>
-      <c r="D74">
-        <v>4272</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
         <v>3646</v>
       </c>
-      <c r="C75" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4273)</v>
-      </c>
-      <c r="D75">
-        <v>4273</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
         <v>3647</v>
       </c>
-      <c r="C76" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4274)</v>
-      </c>
-      <c r="D76">
-        <v>4274</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
         <v>3648</v>
       </c>
-      <c r="C77" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4275)</v>
-      </c>
-      <c r="D77">
-        <v>4275</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
         <v>3649</v>
       </c>
-      <c r="C78" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4276)</v>
-      </c>
-      <c r="D78">
-        <v>4276</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
         <v>3650</v>
       </c>
-      <c r="C79" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4277)</v>
-      </c>
-      <c r="D79">
-        <v>4277</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
         <v>3651</v>
       </c>
-      <c r="C80" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4278)</v>
-      </c>
-      <c r="D80">
-        <v>4278</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
         <v>3652</v>
       </c>
-      <c r="C81" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4279)</v>
-      </c>
-      <c r="D81">
-        <v>4279</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
         <v>3653</v>
       </c>
-      <c r="C82" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4280)</v>
-      </c>
-      <c r="D82">
-        <v>4280</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
         <v>3654</v>
       </c>
-      <c r="C83" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4281)</v>
-      </c>
-      <c r="D83">
-        <v>4281</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
         <v>3655</v>
       </c>
-      <c r="C84" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4282)</v>
-      </c>
-      <c r="D84">
-        <v>4282</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
         <v>3656</v>
       </c>
-      <c r="C85" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4283)</v>
-      </c>
-      <c r="D85">
-        <v>4283</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
         <v>3657</v>
       </c>
-      <c r="C86" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4284)</v>
-      </c>
-      <c r="D86">
-        <v>4284</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
         <v>3658</v>
       </c>
-      <c r="C87" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4285)</v>
-      </c>
-      <c r="D87">
-        <v>4285</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
         <v>3659</v>
       </c>
-      <c r="C88" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4286)</v>
-      </c>
-      <c r="D88">
-        <v>4286</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
         <v>3660</v>
       </c>
-      <c r="C89" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4287)</v>
-      </c>
-      <c r="D89">
-        <v>4287</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
         <v>3661</v>
       </c>
-      <c r="C90" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4288)</v>
-      </c>
-      <c r="D90">
-        <v>4288</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
         <v>3662</v>
       </c>
-      <c r="C91" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4289)</v>
-      </c>
-      <c r="D91">
-        <v>4289</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
         <v>3663</v>
       </c>
-      <c r="C92" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4290)</v>
-      </c>
-      <c r="D92">
-        <v>4290</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
         <v>3664</v>
       </c>
-      <c r="C93" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4291)</v>
-      </c>
-      <c r="D93">
-        <v>4291</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
         <v>3665</v>
       </c>
-      <c r="C94" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4292)</v>
-      </c>
-      <c r="D94">
-        <v>4292</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
         <v>3666</v>
       </c>
-      <c r="C95" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4293)</v>
-      </c>
-      <c r="D95">
-        <v>4293</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
         <v>3667</v>
       </c>
-      <c r="C96" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4294)</v>
-      </c>
-      <c r="D96">
-        <v>4294</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
         <v>3668</v>
       </c>
-      <c r="C97" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4295)</v>
-      </c>
-      <c r="D97">
-        <v>4295</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
         <v>3669</v>
       </c>
-      <c r="C98" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4296)</v>
-      </c>
-      <c r="D98">
-        <v>4296</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
         <v>3670</v>
       </c>
-      <c r="C99" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4297)</v>
-      </c>
-      <c r="D99">
-        <v>4297</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
         <v>3671</v>
       </c>
-      <c r="C100" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4298)</v>
-      </c>
-      <c r="D100">
-        <v>4298</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>3672</v>
       </c>
-      <c r="C101" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4299)</v>
-      </c>
-      <c r="D101">
-        <v>4299</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
         <v>3673</v>
       </c>
-      <c r="C102" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4300)</v>
-      </c>
-      <c r="D102">
-        <v>4300</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
         <v>3674</v>
       </c>
-      <c r="C103" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4301)</v>
-      </c>
-      <c r="D103">
-        <v>4301</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
         <v>3675</v>
       </c>
-      <c r="C104" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4302)</v>
-      </c>
-      <c r="D104">
-        <v>4302</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
         <v>3676</v>
       </c>
-      <c r="C105" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4303)</v>
-      </c>
-      <c r="D105">
-        <v>4303</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
         <v>3677</v>
       </c>
-      <c r="C106" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4304)</v>
-      </c>
-      <c r="D106">
-        <v>4304</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
       <c r="B107" t="s">
         <v>3678</v>
       </c>
-      <c r="C107" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4305)</v>
-      </c>
-      <c r="D107">
-        <v>4305</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
       <c r="B108" t="s">
         <v>3679</v>
       </c>
-      <c r="C108" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4306)</v>
-      </c>
-      <c r="D108">
-        <v>4306</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
       <c r="B109" t="s">
         <v>3680</v>
       </c>
-      <c r="C109" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4307)</v>
-      </c>
-      <c r="D109">
-        <v>4307</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
       <c r="B110" t="s">
         <v>3681</v>
       </c>
-      <c r="C110" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4308)</v>
-      </c>
-      <c r="D110">
-        <v>4308</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
       <c r="B111" t="s">
         <v>3682</v>
       </c>
-      <c r="C111" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4309)</v>
-      </c>
-      <c r="D111">
-        <v>4309</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
       <c r="B112" t="s">
         <v>3683</v>
       </c>
-      <c r="C112" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4310)</v>
-      </c>
-      <c r="D112">
-        <v>4310</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
       <c r="B113" t="s">
         <v>3684</v>
       </c>
-      <c r="C113" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4311)</v>
-      </c>
-      <c r="D113">
-        <v>4311</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
       <c r="B114" t="s">
         <v>3685</v>
       </c>
-      <c r="C114" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4312)</v>
-      </c>
-      <c r="D114">
-        <v>4312</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
         <v>3686</v>
       </c>
-      <c r="C115" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4313)</v>
-      </c>
-      <c r="D115">
-        <v>4313</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
       <c r="B116" t="s">
         <v>3687</v>
       </c>
-      <c r="C116" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4314)</v>
-      </c>
-      <c r="D116">
-        <v>4314</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
       <c r="B117" t="s">
         <v>3688</v>
       </c>
-      <c r="C117" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4315)</v>
-      </c>
-      <c r="D117">
-        <v>4315</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
       <c r="B118" t="s">
         <v>3689</v>
       </c>
-      <c r="C118" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4316)</v>
-      </c>
-      <c r="D118">
-        <v>4316</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
       <c r="B119" t="s">
         <v>3690</v>
       </c>
-      <c r="C119" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4317)</v>
-      </c>
-      <c r="D119">
-        <v>4317</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
       <c r="B120" t="s">
         <v>3691</v>
       </c>
-      <c r="C120" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4318)</v>
-      </c>
-      <c r="D120">
-        <v>4318</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
       <c r="B121" t="s">
         <v>3692</v>
       </c>
-      <c r="C121" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4319)</v>
-      </c>
-      <c r="D121">
-        <v>4319</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
         <v>3693</v>
       </c>
-      <c r="C122" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4320)</v>
-      </c>
-      <c r="D122">
-        <v>4320</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
         <v>3694</v>
       </c>
-      <c r="C123" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4321)</v>
-      </c>
-      <c r="D123">
-        <v>4321</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
         <v>3695</v>
       </c>
-      <c r="C124" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4322)</v>
-      </c>
-      <c r="D124">
-        <v>4322</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
         <v>3696</v>
       </c>
-      <c r="C125" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4323)</v>
-      </c>
-      <c r="D125">
-        <v>4323</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
         <v>3697</v>
       </c>
-      <c r="C126" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4324)</v>
-      </c>
-      <c r="D126">
-        <v>4324</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
         <v>3698</v>
       </c>
-      <c r="C127" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4325)</v>
-      </c>
-      <c r="D127">
-        <v>4325</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
         <v>3699</v>
       </c>
-      <c r="C128" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4326)</v>
-      </c>
-      <c r="D128">
-        <v>4326</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
         <v>3700</v>
       </c>
-      <c r="C129" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4327)</v>
-      </c>
-      <c r="D129">
-        <v>4327</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" t="s">
         <v>3701</v>
       </c>
-      <c r="C130" t="str">
-        <f t="shared" si="1"/>
-        <v>(Принт 4328)</v>
-      </c>
-      <c r="D130">
-        <v>4328</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" t="s">
         <v>3702</v>
       </c>
-      <c r="C131" t="str">
-        <f t="shared" ref="C131:C194" si="2">SUBSTITUTE(B131,"***",D131)</f>
-        <v>(Принт 4329)</v>
-      </c>
-      <c r="D131">
-        <v>4329</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" t="s">
         <v>3703</v>
       </c>
-      <c r="C132" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4330)</v>
-      </c>
-      <c r="D132">
-        <v>4330</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" t="s">
         <v>3704</v>
       </c>
-      <c r="C133" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4331)</v>
-      </c>
-      <c r="D133">
-        <v>4331</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
       <c r="B134" t="s">
         <v>3705</v>
       </c>
-      <c r="C134" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4332)</v>
-      </c>
-      <c r="D134">
-        <v>4332</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" t="s">
         <v>3706</v>
       </c>
-      <c r="C135" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4333)</v>
-      </c>
-      <c r="D135">
-        <v>4333</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
       <c r="B136" t="s">
         <v>3707</v>
       </c>
-      <c r="C136" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4334)</v>
-      </c>
-      <c r="D136">
-        <v>4334</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" t="s">
         <v>3708</v>
       </c>
-      <c r="C137" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4335)</v>
-      </c>
-      <c r="D137">
-        <v>4335</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" t="s">
         <v>3709</v>
       </c>
-      <c r="C138" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4336)</v>
-      </c>
-      <c r="D138">
-        <v>4336</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" t="s">
         <v>3710</v>
       </c>
-      <c r="C139" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4337)</v>
-      </c>
-      <c r="D139">
-        <v>4337</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
       <c r="B140" t="s">
         <v>3711</v>
       </c>
-      <c r="C140" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4338)</v>
-      </c>
-      <c r="D140">
-        <v>4338</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141" t="s">
         <v>3712</v>
       </c>
-      <c r="C141" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4339)</v>
-      </c>
-      <c r="D141">
-        <v>4339</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" t="s">
         <v>3713</v>
       </c>
-      <c r="C142" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4340)</v>
-      </c>
-      <c r="D142">
-        <v>4340</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" t="s">
         <v>3714</v>
       </c>
-      <c r="C143" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4341)</v>
-      </c>
-      <c r="D143">
-        <v>4341</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
       <c r="B144" t="s">
         <v>3715</v>
       </c>
-      <c r="C144" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4342)</v>
-      </c>
-      <c r="D144">
-        <v>4342</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
       <c r="B145" t="s">
         <v>3716</v>
       </c>
-      <c r="C145" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4343)</v>
-      </c>
-      <c r="D145">
-        <v>4343</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
       <c r="B146" t="s">
         <v>3717</v>
       </c>
-      <c r="C146" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4344)</v>
-      </c>
-      <c r="D146">
-        <v>4344</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" t="s">
         <v>3718</v>
       </c>
-      <c r="C147" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4345)</v>
-      </c>
-      <c r="D147">
-        <v>4345</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
       <c r="B148" t="s">
         <v>3719</v>
       </c>
-      <c r="C148" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4346)</v>
-      </c>
-      <c r="D148">
-        <v>4346</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
       <c r="B149" t="s">
         <v>3720</v>
       </c>
-      <c r="C149" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4347)</v>
-      </c>
-      <c r="D149">
-        <v>4347</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
       <c r="B150" t="s">
         <v>3721</v>
       </c>
-      <c r="C150" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4348)</v>
-      </c>
-      <c r="D150">
-        <v>4348</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
       <c r="B151" t="s">
         <v>3722</v>
       </c>
-      <c r="C151" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4349)</v>
-      </c>
-      <c r="D151">
-        <v>4349</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
       <c r="B152" t="s">
         <v>3723</v>
       </c>
-      <c r="C152" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4350)</v>
-      </c>
-      <c r="D152">
-        <v>4350</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
       <c r="B153" t="s">
         <v>3724</v>
       </c>
-      <c r="C153" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4351)</v>
-      </c>
-      <c r="D153">
-        <v>4351</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
       <c r="B154" t="s">
         <v>3725</v>
       </c>
-      <c r="C154" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4352)</v>
-      </c>
-      <c r="D154">
-        <v>4352</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
       <c r="B155" t="s">
         <v>3726</v>
       </c>
-      <c r="C155" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4353)</v>
-      </c>
-      <c r="D155">
-        <v>4353</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
       <c r="B156" t="s">
         <v>3727</v>
       </c>
-      <c r="C156" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4354)</v>
-      </c>
-      <c r="D156">
-        <v>4354</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
       <c r="B157" t="s">
         <v>3728</v>
       </c>
-      <c r="C157" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4355)</v>
-      </c>
-      <c r="D157">
-        <v>4355</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
       <c r="B158" t="s">
         <v>3729</v>
       </c>
-      <c r="C158" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4356)</v>
-      </c>
-      <c r="D158">
-        <v>4356</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
       <c r="B159" t="s">
         <v>3730</v>
       </c>
-      <c r="C159" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4357)</v>
-      </c>
-      <c r="D159">
-        <v>4357</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
       <c r="B160" t="s">
         <v>3731</v>
       </c>
-      <c r="C160" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4358)</v>
-      </c>
-      <c r="D160">
-        <v>4358</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
       <c r="B161" t="s">
         <v>3732</v>
       </c>
-      <c r="C161" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4359)</v>
-      </c>
-      <c r="D161">
-        <v>4359</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
       <c r="B162" t="s">
         <v>3733</v>
       </c>
-      <c r="C162" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4360)</v>
-      </c>
-      <c r="D162">
-        <v>4360</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
       <c r="B163" t="s">
         <v>3734</v>
       </c>
-      <c r="C163" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4361)</v>
-      </c>
-      <c r="D163">
-        <v>4361</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
       <c r="B164" t="s">
         <v>3735</v>
       </c>
-      <c r="C164" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4362)</v>
-      </c>
-      <c r="D164">
-        <v>4362</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
       <c r="B165" t="s">
         <v>3736</v>
       </c>
-      <c r="C165" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4363)</v>
-      </c>
-      <c r="D165">
-        <v>4363</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
       <c r="B166" t="s">
         <v>3737</v>
       </c>
-      <c r="C166" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4364)</v>
-      </c>
-      <c r="D166">
-        <v>4364</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
       <c r="B167" t="s">
         <v>3738</v>
       </c>
-      <c r="C167" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4365)</v>
-      </c>
-      <c r="D167">
-        <v>4365</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
       <c r="B168" t="s">
         <v>3739</v>
       </c>
-      <c r="C168" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4366)</v>
-      </c>
-      <c r="D168">
-        <v>4366</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
       <c r="B169" t="s">
         <v>3740</v>
       </c>
-      <c r="C169" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4367)</v>
-      </c>
-      <c r="D169">
-        <v>4367</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
       <c r="B170" t="s">
         <v>3741</v>
       </c>
-      <c r="C170" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4368)</v>
-      </c>
-      <c r="D170">
-        <v>4368</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
       <c r="B171" t="s">
         <v>3742</v>
       </c>
-      <c r="C171" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4369)</v>
-      </c>
-      <c r="D171">
-        <v>4369</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
       <c r="B172" t="s">
         <v>3743</v>
       </c>
-      <c r="C172" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4370)</v>
-      </c>
-      <c r="D172">
-        <v>4370</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
       <c r="B173" t="s">
         <v>3744</v>
       </c>
-      <c r="C173" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4371)</v>
-      </c>
-      <c r="D173">
-        <v>4371</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
       <c r="B174" t="s">
         <v>3745</v>
       </c>
-      <c r="C174" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4372)</v>
-      </c>
-      <c r="D174">
-        <v>4372</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
       <c r="B175" t="s">
         <v>3746</v>
       </c>
-      <c r="C175" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4373)</v>
-      </c>
-      <c r="D175">
-        <v>4373</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
       <c r="B176" t="s">
         <v>3747</v>
       </c>
-      <c r="C176" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4374)</v>
-      </c>
-      <c r="D176">
-        <v>4374</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
       <c r="B177" t="s">
         <v>3748</v>
       </c>
-      <c r="C177" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4375)</v>
-      </c>
-      <c r="D177">
-        <v>4375</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
       <c r="B178" t="s">
         <v>3749</v>
       </c>
-      <c r="C178" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4376)</v>
-      </c>
-      <c r="D178">
-        <v>4376</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
       <c r="B179" t="s">
         <v>3750</v>
       </c>
-      <c r="C179" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4377)</v>
-      </c>
-      <c r="D179">
-        <v>4377</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>179</v>
       </c>
       <c r="B180" t="s">
         <v>3751</v>
       </c>
-      <c r="C180" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4378)</v>
-      </c>
-      <c r="D180">
-        <v>4378</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>180</v>
       </c>
       <c r="B181" t="s">
         <v>3752</v>
       </c>
-      <c r="C181" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4379)</v>
-      </c>
-      <c r="D181">
-        <v>4379</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
       <c r="B182" t="s">
         <v>3753</v>
       </c>
-      <c r="C182" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4380)</v>
-      </c>
-      <c r="D182">
-        <v>4380</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
       <c r="B183" t="s">
         <v>3754</v>
       </c>
-      <c r="C183" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4381)</v>
-      </c>
-      <c r="D183">
-        <v>4381</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
       <c r="B184" t="s">
         <v>3755</v>
       </c>
-      <c r="C184" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4382)</v>
-      </c>
-      <c r="D184">
-        <v>4382</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
       <c r="B185" t="s">
         <v>3756</v>
       </c>
-      <c r="C185" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4383)</v>
-      </c>
-      <c r="D185">
-        <v>4383</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
       <c r="B186" t="s">
         <v>3757</v>
       </c>
-      <c r="C186" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4384)</v>
-      </c>
-      <c r="D186">
-        <v>4384</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
       <c r="B187" t="s">
         <v>3758</v>
       </c>
-      <c r="C187" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4385)</v>
-      </c>
-      <c r="D187">
-        <v>4385</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>187</v>
       </c>
       <c r="B188" t="s">
         <v>3759</v>
       </c>
-      <c r="C188" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4386)</v>
-      </c>
-      <c r="D188">
-        <v>4386</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>188</v>
       </c>
       <c r="B189" t="s">
         <v>3760</v>
       </c>
-      <c r="C189" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4387)</v>
-      </c>
-      <c r="D189">
-        <v>4387</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
       <c r="B190" t="s">
         <v>3761</v>
       </c>
-      <c r="C190" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4388)</v>
-      </c>
-      <c r="D190">
-        <v>4388</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
       <c r="B191" t="s">
         <v>3762</v>
       </c>
-      <c r="C191" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4389)</v>
-      </c>
-      <c r="D191">
-        <v>4389</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
       <c r="B192" t="s">
         <v>3763</v>
       </c>
-      <c r="C192" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4390)</v>
-      </c>
-      <c r="D192">
-        <v>4390</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
       <c r="B193" t="s">
         <v>3764</v>
       </c>
-      <c r="C193" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4391)</v>
-      </c>
-      <c r="D193">
-        <v>4391</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>193</v>
       </c>
       <c r="B194" t="s">
         <v>3765</v>
       </c>
-      <c r="C194" t="str">
-        <f t="shared" si="2"/>
-        <v>(Принт 4392)</v>
-      </c>
-      <c r="D194">
-        <v>4392</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
       <c r="B195" t="s">
         <v>3766</v>
       </c>
-      <c r="C195" t="str">
-        <f t="shared" ref="C195:C258" si="3">SUBSTITUTE(B195,"***",D195)</f>
-        <v>(Принт 4393)</v>
-      </c>
-      <c r="D195">
-        <v>4393</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
       <c r="B196" t="s">
         <v>3767</v>
       </c>
-      <c r="C196" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4394)</v>
-      </c>
-      <c r="D196">
-        <v>4394</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
       <c r="B197" t="s">
         <v>3768</v>
       </c>
-      <c r="C197" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4395)</v>
-      </c>
-      <c r="D197">
-        <v>4395</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
       <c r="B198" t="s">
         <v>3769</v>
       </c>
-      <c r="C198" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4396)</v>
-      </c>
-      <c r="D198">
-        <v>4396</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>198</v>
       </c>
       <c r="B199" t="s">
         <v>3770</v>
       </c>
-      <c r="C199" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4397)</v>
-      </c>
-      <c r="D199">
-        <v>4397</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
       <c r="B200" t="s">
         <v>3771</v>
       </c>
-      <c r="C200" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4398)</v>
-      </c>
-      <c r="D200">
-        <v>4398</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>200</v>
       </c>
       <c r="B201" t="s">
         <v>3772</v>
       </c>
-      <c r="C201" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4399)</v>
-      </c>
-      <c r="D201">
-        <v>4399</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
       <c r="B202" t="s">
         <v>3773</v>
       </c>
-      <c r="C202" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4400)</v>
-      </c>
-      <c r="D202">
-        <v>4400</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
       <c r="B203" t="s">
         <v>3774</v>
       </c>
-      <c r="C203" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4401)</v>
-      </c>
-      <c r="D203">
-        <v>4401</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
       <c r="B204" t="s">
         <v>3775</v>
       </c>
-      <c r="C204" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4402)</v>
-      </c>
-      <c r="D204">
-        <v>4402</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
       <c r="B205" t="s">
         <v>3776</v>
       </c>
-      <c r="C205" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4403)</v>
-      </c>
-      <c r="D205">
-        <v>4403</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
       <c r="B206" t="s">
         <v>3777</v>
       </c>
-      <c r="C206" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4404)</v>
-      </c>
-      <c r="D206">
-        <v>4404</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
       <c r="B207" t="s">
         <v>3778</v>
       </c>
-      <c r="C207" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4405)</v>
-      </c>
-      <c r="D207">
-        <v>4405</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>207</v>
       </c>
       <c r="B208" t="s">
         <v>3779</v>
       </c>
-      <c r="C208" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4406)</v>
-      </c>
-      <c r="D208">
-        <v>4406</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
       <c r="B209" t="s">
         <v>3780</v>
       </c>
-      <c r="C209" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4407)</v>
-      </c>
-      <c r="D209">
-        <v>4407</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
       <c r="B210" t="s">
         <v>3781</v>
       </c>
-      <c r="C210" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4408)</v>
-      </c>
-      <c r="D210">
-        <v>4408</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
       <c r="B211" t="s">
         <v>3782</v>
       </c>
-      <c r="C211" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4409)</v>
-      </c>
-      <c r="D211">
-        <v>4409</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
       <c r="B212" t="s">
         <v>3783</v>
       </c>
-      <c r="C212" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4410)</v>
-      </c>
-      <c r="D212">
-        <v>4410</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>212</v>
       </c>
       <c r="B213" t="s">
         <v>3784</v>
       </c>
-      <c r="C213" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4411)</v>
-      </c>
-      <c r="D213">
-        <v>4411</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
       <c r="B214" t="s">
         <v>3785</v>
       </c>
-      <c r="C214" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4412)</v>
-      </c>
-      <c r="D214">
-        <v>4412</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
       <c r="B215" t="s">
         <v>3786</v>
       </c>
-      <c r="C215" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4413)</v>
-      </c>
-      <c r="D215">
-        <v>4413</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
       <c r="B216" t="s">
         <v>3787</v>
       </c>
-      <c r="C216" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4414)</v>
-      </c>
-      <c r="D216">
-        <v>4414</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
       <c r="B217" t="s">
         <v>3788</v>
       </c>
-      <c r="C217" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4415)</v>
-      </c>
-      <c r="D217">
-        <v>4415</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
       <c r="B218" t="s">
         <v>3789</v>
       </c>
-      <c r="C218" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4416)</v>
-      </c>
-      <c r="D218">
-        <v>4416</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>218</v>
       </c>
       <c r="B219" t="s">
         <v>3790</v>
       </c>
-      <c r="C219" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4417)</v>
-      </c>
-      <c r="D219">
-        <v>4417</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
       <c r="B220" t="s">
         <v>3791</v>
       </c>
-      <c r="C220" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4418)</v>
-      </c>
-      <c r="D220">
-        <v>4418</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
       <c r="B221" t="s">
         <v>3792</v>
       </c>
-      <c r="C221" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4419)</v>
-      </c>
-      <c r="D221">
-        <v>4419</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
       <c r="B222" t="s">
         <v>3793</v>
       </c>
-      <c r="C222" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4420)</v>
-      </c>
-      <c r="D222">
-        <v>4420</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
       <c r="B223" t="s">
         <v>3794</v>
       </c>
-      <c r="C223" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4421)</v>
-      </c>
-      <c r="D223">
-        <v>4421</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>223</v>
       </c>
       <c r="B224" t="s">
         <v>3795</v>
       </c>
-      <c r="C224" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4422)</v>
-      </c>
-      <c r="D224">
-        <v>4422</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
       <c r="B225" t="s">
         <v>3796</v>
       </c>
-      <c r="C225" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4423)</v>
-      </c>
-      <c r="D225">
-        <v>4423</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
       <c r="B226" t="s">
         <v>3797</v>
       </c>
-      <c r="C226" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4424)</v>
-      </c>
-      <c r="D226">
-        <v>4424</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
       <c r="B227" t="s">
         <v>3798</v>
       </c>
-      <c r="C227" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4425)</v>
-      </c>
-      <c r="D227">
-        <v>4425</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
       <c r="B228" t="s">
         <v>3799</v>
       </c>
-      <c r="C228" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4426)</v>
-      </c>
-      <c r="D228">
-        <v>4426</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
       <c r="B229" t="s">
         <v>3800</v>
       </c>
-      <c r="C229" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4427)</v>
-      </c>
-      <c r="D229">
-        <v>4427</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
       <c r="B230" t="s">
         <v>3801</v>
       </c>
-      <c r="C230" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4428)</v>
-      </c>
-      <c r="D230">
-        <v>4428</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
       <c r="B231" t="s">
         <v>3802</v>
       </c>
-      <c r="C231" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4429)</v>
-      </c>
-      <c r="D231">
-        <v>4429</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
       <c r="B232" t="s">
         <v>3803</v>
       </c>
-      <c r="C232" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4430)</v>
-      </c>
-      <c r="D232">
-        <v>4430</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>232</v>
       </c>
       <c r="B233" t="s">
         <v>3804</v>
       </c>
-      <c r="C233" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4431)</v>
-      </c>
-      <c r="D233">
-        <v>4431</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
       <c r="B234" t="s">
         <v>3805</v>
       </c>
-      <c r="C234" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4432)</v>
-      </c>
-      <c r="D234">
-        <v>4432</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
       <c r="B235" t="s">
         <v>3806</v>
       </c>
-      <c r="C235" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4433)</v>
-      </c>
-      <c r="D235">
-        <v>4433</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
       <c r="B236" t="s">
         <v>3807</v>
       </c>
-      <c r="C236" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4434)</v>
-      </c>
-      <c r="D236">
-        <v>4434</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>236</v>
       </c>
       <c r="B237" t="s">
         <v>3808</v>
       </c>
-      <c r="C237" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4435)</v>
-      </c>
-      <c r="D237">
-        <v>4435</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
       <c r="B238" t="s">
         <v>3809</v>
       </c>
-      <c r="C238" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4436)</v>
-      </c>
-      <c r="D238">
-        <v>4436</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
       <c r="B239" t="s">
         <v>3810</v>
       </c>
-      <c r="C239" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4437)</v>
-      </c>
-      <c r="D239">
-        <v>4437</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
       <c r="B240" t="s">
         <v>3811</v>
       </c>
-      <c r="C240" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4438)</v>
-      </c>
-      <c r="D240">
-        <v>4438</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>240</v>
       </c>
       <c r="B241" t="s">
         <v>3812</v>
       </c>
-      <c r="C241" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4439)</v>
-      </c>
-      <c r="D241">
-        <v>4439</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
       <c r="B242" t="s">
         <v>3813</v>
       </c>
-      <c r="C242" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4440)</v>
-      </c>
-      <c r="D242">
-        <v>4440</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
       <c r="B243" t="s">
         <v>3814</v>
       </c>
-      <c r="C243" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4441)</v>
-      </c>
-      <c r="D243">
-        <v>4441</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>243</v>
       </c>
       <c r="B244" t="s">
         <v>3815</v>
       </c>
-      <c r="C244" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4442)</v>
-      </c>
-      <c r="D244">
-        <v>4442</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
       <c r="B245" t="s">
         <v>3816</v>
       </c>
-      <c r="C245" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4443)</v>
-      </c>
-      <c r="D245">
-        <v>4443</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
       <c r="B246" t="s">
         <v>3817</v>
       </c>
-      <c r="C246" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4444)</v>
-      </c>
-      <c r="D246">
-        <v>4444</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>246</v>
       </c>
       <c r="B247" t="s">
         <v>3818</v>
       </c>
-      <c r="C247" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4445)</v>
-      </c>
-      <c r="D247">
-        <v>4445</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
       <c r="B248" t="s">
         <v>3819</v>
       </c>
-      <c r="C248" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4446)</v>
-      </c>
-      <c r="D248">
-        <v>4446</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
       <c r="B249" t="s">
         <v>3820</v>
       </c>
-      <c r="C249" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4447)</v>
-      </c>
-      <c r="D249">
-        <v>4447</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
       <c r="B250" t="s">
         <v>3821</v>
       </c>
-      <c r="C250" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4448)</v>
-      </c>
-      <c r="D250">
-        <v>4448</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
       <c r="B251" t="s">
         <v>3822</v>
       </c>
-      <c r="C251" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4449)</v>
-      </c>
-      <c r="D251">
-        <v>4449</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
       <c r="B252" t="s">
         <v>3823</v>
       </c>
-      <c r="C252" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4450)</v>
-      </c>
-      <c r="D252">
-        <v>4450</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
       <c r="B253" t="s">
         <v>3824</v>
       </c>
-      <c r="C253" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4451)</v>
-      </c>
-      <c r="D253">
-        <v>4451</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
       <c r="B254" t="s">
         <v>3825</v>
       </c>
-      <c r="C254" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4452)</v>
-      </c>
-      <c r="D254">
-        <v>4452</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>254</v>
       </c>
       <c r="B255" t="s">
         <v>3826</v>
       </c>
-      <c r="C255" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4453)</v>
-      </c>
-      <c r="D255">
-        <v>4453</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
       <c r="B256" t="s">
         <v>3827</v>
       </c>
-      <c r="C256" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4454)</v>
-      </c>
-      <c r="D256">
-        <v>4454</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>256</v>
       </c>
       <c r="B257" t="s">
         <v>3828</v>
       </c>
-      <c r="C257" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4455)</v>
-      </c>
-      <c r="D257">
-        <v>4455</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>257</v>
       </c>
       <c r="B258" t="s">
         <v>3829</v>
       </c>
-      <c r="C258" t="str">
-        <f t="shared" si="3"/>
-        <v>(Принт 4456)</v>
-      </c>
-      <c r="D258">
-        <v>4456</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
       <c r="B259" t="s">
         <v>3830</v>
       </c>
-      <c r="C259" t="str">
-        <f t="shared" ref="C259:C322" si="4">SUBSTITUTE(B259,"***",D259)</f>
-        <v>(Принт 4457)</v>
-      </c>
-      <c r="D259">
-        <v>4457</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>259</v>
       </c>
       <c r="B260" t="s">
         <v>3831</v>
       </c>
-      <c r="C260" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4458)</v>
-      </c>
-      <c r="D260">
-        <v>4458</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
       <c r="B261" t="s">
         <v>3832</v>
       </c>
-      <c r="C261" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4459)</v>
-      </c>
-      <c r="D261">
-        <v>4459</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
       <c r="B262" t="s">
         <v>3833</v>
       </c>
-      <c r="C262" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4460)</v>
-      </c>
-      <c r="D262">
-        <v>4460</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>262</v>
       </c>
       <c r="B263" t="s">
         <v>3834</v>
       </c>
-      <c r="C263" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4461)</v>
-      </c>
-      <c r="D263">
-        <v>4461</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
       <c r="B264" t="s">
         <v>3835</v>
       </c>
-      <c r="C264" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4462)</v>
-      </c>
-      <c r="D264">
-        <v>4462</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>264</v>
       </c>
       <c r="B265" t="s">
         <v>3836</v>
       </c>
-      <c r="C265" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4463)</v>
-      </c>
-      <c r="D265">
-        <v>4463</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>265</v>
       </c>
       <c r="B266" t="s">
         <v>3837</v>
       </c>
-      <c r="C266" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4464)</v>
-      </c>
-      <c r="D266">
-        <v>4464</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
       <c r="B267" t="s">
         <v>3838</v>
       </c>
-      <c r="C267" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4465)</v>
-      </c>
-      <c r="D267">
-        <v>4465</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>267</v>
       </c>
       <c r="B268" t="s">
         <v>3839</v>
       </c>
-      <c r="C268" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4466)</v>
-      </c>
-      <c r="D268">
-        <v>4466</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>268</v>
       </c>
       <c r="B269" t="s">
         <v>3840</v>
       </c>
-      <c r="C269" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4467)</v>
-      </c>
-      <c r="D269">
-        <v>4467</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>269</v>
       </c>
       <c r="B270" t="s">
         <v>3841</v>
       </c>
-      <c r="C270" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4468)</v>
-      </c>
-      <c r="D270">
-        <v>4468</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>270</v>
       </c>
       <c r="B271" t="s">
         <v>3842</v>
       </c>
-      <c r="C271" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4469)</v>
-      </c>
-      <c r="D271">
-        <v>4469</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
       <c r="B272" t="s">
         <v>3843</v>
       </c>
-      <c r="C272" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4470)</v>
-      </c>
-      <c r="D272">
-        <v>4470</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
       <c r="B273" t="s">
         <v>3844</v>
       </c>
-      <c r="C273" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4471)</v>
-      </c>
-      <c r="D273">
-        <v>4471</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
       <c r="B274" t="s">
         <v>3845</v>
       </c>
-      <c r="C274" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4472)</v>
-      </c>
-      <c r="D274">
-        <v>4472</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>274</v>
       </c>
       <c r="B275" t="s">
         <v>3846</v>
       </c>
-      <c r="C275" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4473)</v>
-      </c>
-      <c r="D275">
-        <v>4473</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>275</v>
       </c>
       <c r="B276" t="s">
         <v>3847</v>
       </c>
-      <c r="C276" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4474)</v>
-      </c>
-      <c r="D276">
-        <v>4474</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
       <c r="B277" t="s">
         <v>3848</v>
       </c>
-      <c r="C277" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4475)</v>
-      </c>
-      <c r="D277">
-        <v>4475</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>277</v>
       </c>
       <c r="B278" t="s">
         <v>3849</v>
       </c>
-      <c r="C278" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4476)</v>
-      </c>
-      <c r="D278">
-        <v>4476</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
       <c r="B279" t="s">
         <v>3850</v>
       </c>
-      <c r="C279" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4477)</v>
-      </c>
-      <c r="D279">
-        <v>4477</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>279</v>
       </c>
       <c r="B280" t="s">
         <v>3851</v>
       </c>
-      <c r="C280" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4478)</v>
-      </c>
-      <c r="D280">
-        <v>4478</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
       <c r="B281" t="s">
         <v>3852</v>
       </c>
-      <c r="C281" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4479)</v>
-      </c>
-      <c r="D281">
-        <v>4479</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
       <c r="B282" t="s">
         <v>3853</v>
       </c>
-      <c r="C282" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4480)</v>
-      </c>
-      <c r="D282">
-        <v>4480</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
       <c r="B283" t="s">
         <v>3854</v>
       </c>
-      <c r="C283" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4481)</v>
-      </c>
-      <c r="D283">
-        <v>4481</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
       <c r="B284" t="s">
         <v>3855</v>
       </c>
-      <c r="C284" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4482)</v>
-      </c>
-      <c r="D284">
-        <v>4482</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
       <c r="B285" t="s">
         <v>3856</v>
       </c>
-      <c r="C285" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4483)</v>
-      </c>
-      <c r="D285">
-        <v>4483</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>285</v>
       </c>
       <c r="B286" t="s">
         <v>3857</v>
       </c>
-      <c r="C286" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4484)</v>
-      </c>
-      <c r="D286">
-        <v>4484</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
       <c r="B287" t="s">
         <v>3858</v>
       </c>
-      <c r="C287" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4485)</v>
-      </c>
-      <c r="D287">
-        <v>4485</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>287</v>
       </c>
       <c r="B288" t="s">
         <v>3859</v>
       </c>
-      <c r="C288" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4486)</v>
-      </c>
-      <c r="D288">
-        <v>4486</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>288</v>
       </c>
       <c r="B289" t="s">
         <v>3860</v>
       </c>
-      <c r="C289" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4487)</v>
-      </c>
-      <c r="D289">
-        <v>4487</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
       <c r="B290" t="s">
         <v>3861</v>
       </c>
-      <c r="C290" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4488)</v>
-      </c>
-      <c r="D290">
-        <v>4488</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
       <c r="B291" t="s">
         <v>3862</v>
       </c>
-      <c r="C291" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4489)</v>
-      </c>
-      <c r="D291">
-        <v>4489</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
       <c r="B292" t="s">
         <v>3863</v>
       </c>
-      <c r="C292" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4490)</v>
-      </c>
-      <c r="D292">
-        <v>4490</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
       <c r="B293" t="s">
         <v>3864</v>
       </c>
-      <c r="C293" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4491)</v>
-      </c>
-      <c r="D293">
-        <v>4491</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>293</v>
       </c>
       <c r="B294" t="s">
         <v>3865</v>
       </c>
-      <c r="C294" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4492)</v>
-      </c>
-      <c r="D294">
-        <v>4492</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
       <c r="B295" t="s">
         <v>3866</v>
       </c>
-      <c r="C295" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4493)</v>
-      </c>
-      <c r="D295">
-        <v>4493</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
       <c r="B296" t="s">
         <v>3867</v>
       </c>
-      <c r="C296" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4494)</v>
-      </c>
-      <c r="D296">
-        <v>4494</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
       <c r="B297" t="s">
         <v>3868</v>
       </c>
-      <c r="C297" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4495)</v>
-      </c>
-      <c r="D297">
-        <v>4495</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
       <c r="B298" t="s">
         <v>3869</v>
       </c>
-      <c r="C298" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4496)</v>
-      </c>
-      <c r="D298">
-        <v>4496</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>298</v>
       </c>
       <c r="B299" t="s">
         <v>3870</v>
       </c>
-      <c r="C299" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4497)</v>
-      </c>
-      <c r="D299">
-        <v>4497</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>299</v>
       </c>
       <c r="B300" t="s">
         <v>3871</v>
       </c>
-      <c r="C300" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4498)</v>
-      </c>
-      <c r="D300">
-        <v>4498</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>300</v>
       </c>
       <c r="B301" t="s">
         <v>3872</v>
       </c>
-      <c r="C301" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4499)</v>
-      </c>
-      <c r="D301">
-        <v>4499</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>301</v>
       </c>
       <c r="B302" t="s">
         <v>3873</v>
       </c>
-      <c r="C302" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4500)</v>
-      </c>
-      <c r="D302">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>302</v>
       </c>
       <c r="B303" t="s">
         <v>3874</v>
       </c>
-      <c r="C303" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4501)</v>
-      </c>
-      <c r="D303">
-        <v>4501</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>303</v>
       </c>
       <c r="B304" t="s">
         <v>3875</v>
       </c>
-      <c r="C304" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4502)</v>
-      </c>
-      <c r="D304">
-        <v>4502</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>304</v>
       </c>
       <c r="B305" t="s">
         <v>3876</v>
       </c>
-      <c r="C305" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4503)</v>
-      </c>
-      <c r="D305">
-        <v>4503</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>305</v>
       </c>
       <c r="B306" t="s">
         <v>3877</v>
       </c>
-      <c r="C306" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4504)</v>
-      </c>
-      <c r="D306">
-        <v>4504</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>306</v>
       </c>
       <c r="B307" t="s">
         <v>3878</v>
       </c>
-      <c r="C307" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4505)</v>
-      </c>
-      <c r="D307">
-        <v>4505</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>307</v>
       </c>
       <c r="B308" t="s">
         <v>3879</v>
       </c>
-      <c r="C308" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4506)</v>
-      </c>
-      <c r="D308">
-        <v>4506</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>308</v>
       </c>
       <c r="B309" t="s">
         <v>3880</v>
       </c>
-      <c r="C309" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4507)</v>
-      </c>
-      <c r="D309">
-        <v>4507</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>309</v>
       </c>
       <c r="B310" t="s">
         <v>3881</v>
       </c>
-      <c r="C310" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4508)</v>
-      </c>
-      <c r="D310">
-        <v>4508</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>310</v>
       </c>
       <c r="B311" t="s">
         <v>3882</v>
       </c>
-      <c r="C311" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4509)</v>
-      </c>
-      <c r="D311">
-        <v>4509</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>311</v>
       </c>
       <c r="B312" t="s">
         <v>3883</v>
       </c>
-      <c r="C312" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4510)</v>
-      </c>
-      <c r="D312">
-        <v>4510</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>312</v>
       </c>
       <c r="B313" t="s">
         <v>3884</v>
       </c>
-      <c r="C313" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4511)</v>
-      </c>
-      <c r="D313">
-        <v>4511</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>313</v>
       </c>
       <c r="B314" t="s">
         <v>3885</v>
       </c>
-      <c r="C314" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4512)</v>
-      </c>
-      <c r="D314">
-        <v>4512</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>314</v>
       </c>
       <c r="B315" t="s">
         <v>3886</v>
       </c>
-      <c r="C315" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4513)</v>
-      </c>
-      <c r="D315">
-        <v>4513</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>315</v>
       </c>
       <c r="B316" t="s">
         <v>3887</v>
       </c>
-      <c r="C316" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4514)</v>
-      </c>
-      <c r="D316">
-        <v>4514</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>316</v>
       </c>
       <c r="B317" t="s">
         <v>3888</v>
       </c>
-      <c r="C317" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4515)</v>
-      </c>
-      <c r="D317">
-        <v>4515</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>317</v>
       </c>
       <c r="B318" t="s">
         <v>3889</v>
       </c>
-      <c r="C318" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4516)</v>
-      </c>
-      <c r="D318">
-        <v>4516</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>318</v>
       </c>
       <c r="B319" t="s">
         <v>3890</v>
       </c>
-      <c r="C319" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4517)</v>
-      </c>
-      <c r="D319">
-        <v>4517</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>319</v>
       </c>
       <c r="B320" t="s">
         <v>3891</v>
       </c>
-      <c r="C320" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4518)</v>
-      </c>
-      <c r="D320">
-        <v>4518</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>320</v>
       </c>
       <c r="B321" t="s">
         <v>3892</v>
       </c>
-      <c r="C321" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4519)</v>
-      </c>
-      <c r="D321">
-        <v>4519</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>321</v>
       </c>
       <c r="B322" t="s">
         <v>3893</v>
       </c>
-      <c r="C322" t="str">
-        <f t="shared" si="4"/>
-        <v>(Принт 4520)</v>
-      </c>
-      <c r="D322">
-        <v>4520</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>322</v>
       </c>
       <c r="B323" t="s">
         <v>3894</v>
       </c>
-      <c r="C323" t="str">
-        <f t="shared" ref="C323:C352" si="5">SUBSTITUTE(B323,"***",D323)</f>
-        <v>(Принт 4521)</v>
-      </c>
-      <c r="D323">
-        <v>4521</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>323</v>
       </c>
       <c r="B324" t="s">
         <v>3895</v>
       </c>
-      <c r="C324" t="str">
-        <f t="shared" si="5"/>
-        <v>(Принт 4522)</v>
-      </c>
-      <c r="D324">
-        <v>4522</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>324</v>
       </c>
       <c r="B325" t="s">
         <v>3896</v>
       </c>
-      <c r="C325" t="str">
-        <f t="shared" si="5"/>
-        <v>(Принт 4523)</v>
-      </c>
-      <c r="D325">
-        <v>4523</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>325</v>
       </c>
       <c r="B326" t="s">
         <v>3897</v>
       </c>
-      <c r="C326" t="str">
-        <f t="shared" si="5"/>
-        <v>(Принт 4524)</v>
-      </c>
-      <c r="D326">
-        <v>4524</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>326</v>
       </c>
       <c r="B327" t="s">
         <v>3898</v>
       </c>
-      <c r="C327" t="str">
-        <f t="shared" si="5"/>
-        <v>(Принт 4525)</v>
-      </c>
-      <c r="D327">
-        <v>4525</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>327</v>
       </c>
       <c r="B328" t="s">
         <v>3899</v>
       </c>
-      <c r="C328" t="str">
-        <f t="shared" si="5"/>
-        <v>(Принт 4526)</v>
-      </c>
-      <c r="D328">
-        <v>4526</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>328</v>
       </c>
       <c r="B329" t="s">
         <v>3900</v>
       </c>
-      <c r="C329" t="str">
-        <f t="shared" si="5"/>
-        <v>(Принт 4527)</v>
-      </c>
-      <c r="D329">
-        <v>4527</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>329</v>
       </c>
       <c r="B330" t="s">
         <v>3901</v>
       </c>
-      <c r="C330" t="str">
-        <f t="shared" si="5"/>
-        <v>(Принт 4528)</v>
-      </c>
-      <c r="D330">
-        <v>4528</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>330</v>
       </c>
       <c r="B331" t="s">
         <v>3902</v>
       </c>
-      <c r="C331" t="str">
-        <f t="shared" si="5"/>
-        <v>(Принт 4529)</v>
-      </c>
-      <c r="D331">
-        <v>4529</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>331</v>
       </c>
       <c r="B332" t="s">
         <v>3903</v>
       </c>
-      <c r="C332" t="str">
-        <f t="shared" si="5"/>
-        <v>(Принт 4530)</v>
-      </c>
-      <c r="D332">
-        <v>4530</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>332</v>
       </c>
       <c r="B333" t="s">
         <v>3904</v>
       </c>
-      <c r="C333" t="str">
-        <f t="shared" si="5"/>
-        <v>(Принт 4531)</v>
-      </c>
-      <c r="D333">
-        <v>4531</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>333</v>
       </c>
       <c r="B334" t="s">
         <v>3905</v>
       </c>
-      <c r="C334" t="str">
-        <f t="shared" si="5"/>
-        <v>(Принт 4532)</v>
-      </c>
-      <c r="D334">
-        <v>4532</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>334</v>
       </c>
       <c r="B335" t="s">
         <v>3906</v>
       </c>
-      <c r="C335" t="str">
-        <f t="shared" si="5"/>
-        <v>(Принт 4533)</v>
-      </c>
-      <c r="D335">
-        <v>4533</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>335</v>
       </c>
       <c r="B336" t="s">
         <v>3907</v>
       </c>
-      <c r="C336" t="str">
-        <f t="shared" si="5"/>
-        <v>(Принт 4534)</v>
-      </c>
-      <c r="D336">
-        <v>4534</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>336</v>
       </c>
       <c r="B337" t="s">
         <v>3908</v>
       </c>
-      <c r="C337" t="str">
-        <f t="shared" si="5"/>
-        <v>(Принт 4535)</v>
-      </c>
-      <c r="D337">
-        <v>4535</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>337</v>
       </c>
       <c r="B338" t="s">
         <v>3909</v>
       </c>
-      <c r="C338" t="str">
-        <f t="shared" si="5"/>
-        <v>(Принт 4536)</v>
-      </c>
-      <c r="D338">
-        <v>4536</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>338</v>
       </c>
       <c r="B339" t="s">
         <v>3910</v>
       </c>
-      <c r="C339" t="str">
-        <f t="shared" si="5"/>
-        <v>(Принт 4537)</v>
-      </c>
-      <c r="D339">
-        <v>4537</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>339</v>
       </c>
       <c r="B340" t="s">
         <v>3911</v>
       </c>
-      <c r="C340" t="str">
-        <f t="shared" si="5"/>
-        <v>(Принт 4538)</v>
-      </c>
-      <c r="D340">
-        <v>4538</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>340</v>
       </c>
       <c r="B341" t="s">
         <v>3912</v>
       </c>
-      <c r="C341" t="str">
-        <f t="shared" si="5"/>
-        <v>(Принт 4539)</v>
-      </c>
-      <c r="D341">
-        <v>4539</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>341</v>
       </c>
       <c r="B342" t="s">
         <v>3913</v>
       </c>
-      <c r="C342" t="str">
-        <f t="shared" si="5"/>
-        <v>(Принт 4540)</v>
-      </c>
-      <c r="D342">
-        <v>4540</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>342</v>
       </c>
       <c r="B343" t="s">
         <v>3914</v>
       </c>
-      <c r="C343" t="str">
-        <f t="shared" si="5"/>
-        <v>(Принт 4541)</v>
-      </c>
-      <c r="D343">
-        <v>4541</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>343</v>
       </c>
       <c r="B344" t="s">
         <v>3915</v>
       </c>
-      <c r="C344" t="str">
-        <f t="shared" si="5"/>
-        <v>(Принт 4542)</v>
-      </c>
-      <c r="D344">
-        <v>4542</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>344</v>
       </c>
       <c r="B345" t="s">
         <v>3916</v>
       </c>
-      <c r="C345" t="str">
-        <f t="shared" si="5"/>
-        <v>(Принт 4543)</v>
-      </c>
-      <c r="D345">
-        <v>4543</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>345</v>
       </c>
       <c r="B346" t="s">
         <v>3917</v>
       </c>
-      <c r="C346" t="str">
-        <f t="shared" si="5"/>
-        <v>(Принт 4544)</v>
-      </c>
-      <c r="D346">
-        <v>4544</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>346</v>
       </c>
       <c r="B347" t="s">
         <v>3918</v>
       </c>
-      <c r="C347" t="str">
-        <f t="shared" si="5"/>
-        <v>(Принт 4545)</v>
-      </c>
-      <c r="D347">
-        <v>4545</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>347</v>
       </c>
       <c r="B348" t="s">
         <v>3919</v>
       </c>
-      <c r="C348" t="str">
-        <f t="shared" si="5"/>
-        <v>(Принт 4546)</v>
-      </c>
-      <c r="D348">
-        <v>4546</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>348</v>
       </c>
       <c r="B349" t="s">
         <v>3920</v>
       </c>
-      <c r="C349" t="str">
-        <f t="shared" si="5"/>
-        <v>(Принт 4547)</v>
-      </c>
-      <c r="D349">
-        <v>4547</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>349</v>
       </c>
       <c r="B350" t="s">
         <v>3921</v>
       </c>
-      <c r="C350" t="str">
-        <f t="shared" si="5"/>
-        <v>(Принт 4548)</v>
-      </c>
-      <c r="D350">
-        <v>4548</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>350</v>
       </c>
       <c r="B351" t="s">
         <v>3922</v>
       </c>
-      <c r="C351" t="str">
-        <f t="shared" si="5"/>
-        <v>(Принт 4549)</v>
-      </c>
-      <c r="D351">
-        <v>4549</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>351</v>
       </c>
       <c r="B352" t="s">
         <v>3923</v>
-      </c>
-      <c r="C352" t="str">
-        <f t="shared" si="5"/>
-        <v>(Принт 4550)</v>
-      </c>
-      <c r="D352">
-        <v>4550</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
